--- a/templates/GestioneSalariOspedale.xlsx
+++ b/templates/GestioneSalariOspedale.xlsx
@@ -161,9 +161,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -242,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -253,6 +254,10 @@
     <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -592,7 +597,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="F4" activeCellId="1" sqref="A4 F4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -636,22 +641,22 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="e">
+      <c r="F4" s="10" t="e">
         <f>D4 +( E4 * 10)</f>
         <v>#VALUE!</v>
       </c>
@@ -662,12 +667,12 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="7">
+      <c r="D5" s="12">
         <f>SUM(D4)</f>
         <v>0</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="7" t="e">
+      <c r="F5" s="12" t="e">
         <f>SUM(F4)</f>
         <v>#VALUE!</v>
       </c>

--- a/templates/GestioneSalariOspedale.xlsx
+++ b/templates/GestioneSalariOspedale.xlsx
@@ -77,7 +77,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="employees" var="employee" lastCell="F4")</t>
+jx:each(items="fields" var="employee" lastCell="F4")</t>
         </r>
       </text>
     </comment>

--- a/templates/GestioneSalariOspedale.xlsx
+++ b/templates/GestioneSalariOspedale.xlsx
@@ -53,7 +53,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="F6")</t>
+jx:area(lastCell="G6")</t>
         </r>
       </text>
     </comment>
@@ -77,7 +77,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="fields" var="employee" lastCell="F4")</t>
+jx:each(items="fields" var="employee" lastCell="G4")</t>
         </r>
       </text>
     </comment>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>Hospital Employees</t>
+  </si>
+  <si>
+    <t>${employee.hourlyPay}</t>
+  </si>
+  <si>
+    <t>HourlyPay</t>
   </si>
 </sst>
 </file>
@@ -594,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -605,11 +611,11 @@
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="5" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -618,9 +624,10 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -637,10 +644,13 @@
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -656,12 +666,15 @@
       <c r="E4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="10" t="e">
-        <f>D4 +( E4 * 10)</f>
+      <c r="F4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="10" t="e">
+        <f xml:space="preserve"> D4 +( E4 * F4 )</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -672,8 +685,9 @@
         <v>0</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="12" t="e">
-        <f>SUM(F4)</f>
+      <c r="F5" s="6"/>
+      <c r="G5" s="12" t="e">
+        <f>SUM(G4)</f>
         <v>#VALUE!</v>
       </c>
     </row>

--- a/templates/GestioneSalariOspedale.xlsx
+++ b/templates/GestioneSalariOspedale.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
-    <sheet name="Result" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -86,42 +85,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Birth Date</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
-    <t>Bonus</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Summary:</t>
   </si>
   <si>
     <t>Total Payment</t>
-  </si>
-  <si>
-    <t>Excel Formulas Demo</t>
-  </si>
-  <si>
-    <t>Elsa</t>
-  </si>
-  <si>
-    <t>Oleg</t>
-  </si>
-  <si>
-    <t>Neil</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>John</t>
   </si>
   <si>
     <t>${employee.firstname}</t>
@@ -167,9 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+  <numFmts count="1">
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -249,17 +216,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -617,76 +580,76 @@
   <sheetData>
     <row r="1" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="10" t="e">
+      <c r="G4" s="6" t="e">
         <f xml:space="preserve"> D4 +( E4 * F4 )</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="12">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="8">
         <f>SUM(D4)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="12" t="e">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="8" t="e">
         <f>SUM(G4)</f>
         <v>#VALUE!</v>
       </c>
@@ -696,161 +659,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="25.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4">
-        <v>25759</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1500</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="E4" s="5">
-        <f>C4*(1+D4)</f>
-        <v>1724.9999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4">
-        <v>26784</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2300</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="E5" s="5">
-        <f>C5*(1+D5)</f>
-        <v>2875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4">
-        <v>27672</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2500</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <f>C6*(1+D6)</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4">
-        <v>28497</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1700</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="E7" s="5">
-        <f>C7*(1+D7)</f>
-        <v>1954.9999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4">
-        <v>25353</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2800</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="E8" s="5">
-        <f>C8*(1+D8)</f>
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7">
-        <f>SUM(C4:C8)</f>
-        <v>10800</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7">
-        <f>SUM(E4:E8)</f>
-        <v>12415</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
 </file>
--- a/templates/GestioneSalariOspedale.xlsx
+++ b/templates/GestioneSalariOspedale.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Summary:</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>HourlyPay</t>
+  </si>
+  <si>
+    <t>$[D4 + ( E4 * ${employee.hourlyPay} )]</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -223,9 +226,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -566,7 +569,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -632,9 +635,8 @@
       <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6" t="e">
-        <f xml:space="preserve"> D4 +( E4 * F4 )</f>
-        <v>#VALUE!</v>
+      <c r="G4" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -649,9 +651,9 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="8" t="e">
+      <c r="G5" s="8">
         <f>SUM(G4)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
